--- a/output.xlsx
+++ b/output.xlsx
@@ -13395,103 +13395,98 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A1))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AD5">
-    <cfRule type="notContainsErrors" dxfId="0" priority="5">
+    <cfRule type="notContainsErrors" dxfId="0" priority="4">
       <formula>NOT(ISERROR(AD5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6">
-    <cfRule type="notContainsErrors" dxfId="0" priority="6">
+    <cfRule type="notContainsErrors" dxfId="0" priority="5">
       <formula>NOT(ISERROR(AF6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7">
-    <cfRule type="notContainsErrors" dxfId="0" priority="7">
+    <cfRule type="notContainsErrors" dxfId="0" priority="6">
       <formula>NOT(ISERROR(AG7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8">
-    <cfRule type="notContainsErrors" dxfId="0" priority="8">
+    <cfRule type="notContainsErrors" dxfId="0" priority="7">
       <formula>NOT(ISERROR(AL8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9">
-    <cfRule type="notContainsErrors" dxfId="0" priority="9">
+    <cfRule type="notContainsErrors" dxfId="0" priority="8">
       <formula>NOT(ISERROR(AQ9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR10">
-    <cfRule type="notContainsErrors" dxfId="0" priority="10">
+    <cfRule type="notContainsErrors" dxfId="0" priority="9">
       <formula>NOT(ISERROR(AR10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF11">
-    <cfRule type="notContainsErrors" dxfId="0" priority="11">
+    <cfRule type="notContainsErrors" dxfId="0" priority="10">
       <formula>NOT(ISERROR(BF11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK12">
-    <cfRule type="notContainsErrors" dxfId="0" priority="12">
+    <cfRule type="notContainsErrors" dxfId="0" priority="11">
       <formula>NOT(ISERROR(BK12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV13">
-    <cfRule type="notContainsErrors" dxfId="0" priority="13">
+    <cfRule type="notContainsErrors" dxfId="0" priority="12">
       <formula>NOT(ISERROR(BV13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC14">
-    <cfRule type="notContainsErrors" dxfId="0" priority="14">
+    <cfRule type="notContainsErrors" dxfId="0" priority="13">
       <formula>NOT(ISERROR(CC14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD15">
-    <cfRule type="notContainsErrors" dxfId="0" priority="15">
+    <cfRule type="notContainsErrors" dxfId="0" priority="14">
       <formula>NOT(ISERROR(CD15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR16">
-    <cfRule type="notContainsErrors" dxfId="0" priority="16">
+    <cfRule type="notContainsErrors" dxfId="0" priority="15">
       <formula>NOT(ISERROR(CR16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ17">
-    <cfRule type="notContainsErrors" dxfId="0" priority="17">
+    <cfRule type="notContainsErrors" dxfId="0" priority="16">
       <formula>NOT(ISERROR(EQ17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU18">
-    <cfRule type="notContainsErrors" dxfId="0" priority="18">
+    <cfRule type="notContainsErrors" dxfId="0" priority="17">
       <formula>NOT(ISERROR(EU18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG19">
-    <cfRule type="notContainsErrors" dxfId="0" priority="19">
+    <cfRule type="notContainsErrors" dxfId="0" priority="18">
       <formula>NOT(ISERROR(FG19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM20">
-    <cfRule type="notContainsErrors" dxfId="0" priority="20">
+    <cfRule type="notContainsErrors" dxfId="0" priority="19">
       <formula>NOT(ISERROR(FM20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="notContainsErrors" dxfId="0" priority="2">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(Q2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="notContainsErrors" dxfId="0" priority="3">
+    <cfRule type="notContainsErrors" dxfId="0" priority="2">
       <formula>NOT(ISERROR(W3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="3">
       <formula>NOT(ISERROR(Y4))</formula>
     </cfRule>
   </conditionalFormatting>
